--- a/pred_ohlcv/54_21/2020-01-23 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 OMG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-19950.55940000001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-19101.2658</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-19101.2658</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-19104.6951</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-21340.21610000001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-21682.4101</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-21809.9101</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-21809.9101</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-23159.77510000001</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-23071.94690000001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-18596.58140000001</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-12578.68916231674</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-12012.92294728109</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-11945.87620287906</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-13445.87620287906</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-13450.04290287906</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-15010.90490287907</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-17446.14350287907</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-17384.44350287906</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-21843.67660287907</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-21798.37670287906</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-21784.67670287906</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-21379.17190287906</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-21379.17190287906</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-21107.75010287906</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-21675.75010287906</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-21675.75010287906</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-22000.96340287906</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-23827.79080287906</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-23800.20590287906</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-23811.14590287906</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-27215.56578933373</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-27410.55118933373</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-29025.30608933373</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-30122.29948933373</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-30093.54818933373</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-30093.54818933373</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-30447.52408933373</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-30447.52408933373</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-30448.34098933373</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-30433.67798933373</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-30432.86108933373</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-32238.66358933373</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-32237.84668933373</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 OMG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-19968.39880000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-19950.55940000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-19101.2658</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-19101.2658</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-19104.6951</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-21340.21610000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-21682.4101</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-21809.9101</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-21809.9101</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-23159.77510000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-23071.94690000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-23070.94690000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-12012.92294728109</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-11945.87620287906</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-13445.87620287906</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-13450.04290287906</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-15010.90490287907</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-17446.14350287907</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-17384.44350287906</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-21843.67660287907</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-21798.37670287906</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-21784.67670287906</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-21379.17190287906</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-21379.17190287906</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-21096.75010287906</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-21107.75010287906</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-21675.75010287906</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-21675.75010287906</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-22000.96340287906</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-27368.58058933373</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-25451.51238933373</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-29154.47498933373</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-29010.05068933373</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-27216.46578933373</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-27215.56578933373</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-27150.55118933373</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-29025.30608933373</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-29025.30608933373</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-29752.67188933373</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-30122.29948933373</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-30093.54818933373</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-30093.54818933373</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-30447.52408933373</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-30447.52408933373</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-30448.34098933373</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-30433.67798933373</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-30432.86108933373</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-32238.06358933373</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-32238.66358933373</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-32237.84668933373</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-32239.48048933373</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-32240.29738933373</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
